--- a/TortoiseGit-操作マニュアル.xlsx
+++ b/TortoiseGit-操作マニュアル.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Git-Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177786EA-CABC-4D0E-94D7-5B5D21DB8640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26A9D69-15C9-4204-8536-011239612710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41590" yWindow="-4800" windowWidth="17030" windowHeight="17100" xr2:uid="{11A84E30-2551-4C0C-A530-587291F26D49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22080" activeTab="2" xr2:uid="{11A84E30-2551-4C0C-A530-587291F26D49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="リポジトリ一覧を確認する方法" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>リモートリポジトリと同名のフォルダ名でローカルリポジトリを作成し、そのフォルダ内に遷移。そしてそこで右クリックして</t>
     <rPh sb="10" eb="12">
@@ -116,6 +118,14 @@
     <rPh sb="66" eb="68">
       <t>カクニン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.aise.ics.saitama-u.ac.jp/~gotoh/MakeRepositoryTortoiseGit.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■バージョン管理開始（TortoiseGit）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -123,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +144,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -157,17 +176,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1015,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2816FB-7B41-4BB0-878F-FEBCE2A93554}">
   <dimension ref="B2:C233"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A241" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A235" workbookViewId="0">
       <selection activeCell="B260" sqref="B260"/>
     </sheetView>
   </sheetViews>
@@ -1051,4 +1077,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72CAB83-2539-461C-8B4A-672FE737F708}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF98944-F503-45C7-9DDB-13E4BBCBCEEB}">
+  <dimension ref="A3:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{D4358342-5669-479F-9F8C-EF968063AE59}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TortoiseGit-操作マニュアル.xlsx
+++ b/TortoiseGit-操作マニュアル.xlsx
@@ -1,33 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Git-Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26A9D69-15C9-4204-8536-011239612710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B72F2E9-1E63-4DC2-837C-605F9E9CD1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22080" activeTab="2" xr2:uid="{11A84E30-2551-4C0C-A530-587291F26D49}"/>
+    <workbookView xWindow="30620" yWindow="-4560" windowWidth="27570" windowHeight="15640" activeTab="2" xr2:uid="{11A84E30-2551-4C0C-A530-587291F26D49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="リポジトリ一覧を確認する方法" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ブランチ運用" sheetId="7" r:id="rId3"/>
+    <sheet name="マージ手順" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="調査項目リスト" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>リモートリポジトリと同名のフォルダ名でローカルリポジトリを作成し、そのフォルダ内に遷移。そしてそこで右クリックして</t>
     <rPh sb="10" eb="12">
@@ -126,6 +141,396 @@
   </si>
   <si>
     <t>■バージョン管理開始（TortoiseGit）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ローカルリポジトリで編集した内容をコミットしリモートに反映するには</t>
+    <rPh sb="28" eb="30">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://hourouneko.hateblo.jp/entry/2017/02/23/145549</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■【運用編】Windows10 + Git + Tortoise Git + DropBoxな環境構築</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■更新履歴の確認方法</t>
+    <rPh sb="1" eb="5">
+      <t>コウシンリレキ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>カクニンホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■過去履歴にデータを戻すには</t>
+    <rPh sb="1" eb="5">
+      <t>カコリレキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■使用しそうな機能</t>
+    <rPh sb="1" eb="3">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・リポジトリブラウザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・リビジョングラフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■マージ方法</t>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安定バージョン</t>
+    <rPh sb="0" eb="2">
+      <t>アンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/ren0826jam/items/8eb8f59c13dbba7863ad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランチの種類一覧</t>
+    <rPh sb="5" eb="9">
+      <t>シュルイイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>developブランチ, featureブランチを必ず切って作業すること。</t>
+    <rPh sb="27" eb="28">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改造作業するブランチは、featureブランチで実施。</t>
+    <rPh sb="0" eb="2">
+      <t>カイゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>developブランチを作成しているのは、masterブランチで他のタスクでの</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改造あった場合、featureブランチで改造が完了した時にdevelopブランチにマージする前に</t>
+    <rPh sb="0" eb="2">
+      <t>カイゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイゾウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最新のmasterブランチをdevelopブランチにプルしてからマージする必要があるため作成している。</t>
+    <rPh sb="0" eb="2">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改造後にdevelopブランチにマージしたバージョンで単体テスト・システムテストを実施しリリース後</t>
+    <rPh sb="0" eb="3">
+      <t>カイゾウゴ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>masterブランチにマージ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ブランチ削除方法</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.granfairs.com/blog/cto/tortoisegit-delete-branch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リモート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>develop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feature</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リモートのmasterブランチからクローン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルのmasterブランチからdevelopブランチを作成</t>
+    <rPh sb="29" eb="31">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成したローカルのdevelopブランチをリモートにプッシュしリモートにdevelopブランチを作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルのdevelopブランチからfeatureブランチを作業用に作成</t>
+    <rPh sb="30" eb="33">
+      <t>サギョウヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>featureブランチ作業内容をローカルのdevelopブランチにマージし反映</t>
+    <rPh sb="11" eb="15">
+      <t>サギョウナイヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>developブランチに記録している作業内容をリモートのdevelopブランチに反映</t>
+    <rPh sb="12" eb="14">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>サギョウナイヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リモートのmasterブランチ最新の内容をローカルのmasterブランチに取得</t>
+    <rPh sb="15" eb="17">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新したmasterブランチから最新の内容をdevelopブランチにマージし反映</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルのdevelopブランチの内容をローカルのmasterブランチに反映。※この時ローカルのdevelopブランチは削除</t>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルでの開発が完了したfeatureブランチの内容をdevelopブランチに反映。※この時ローカルのfeatureブランチは削除</t>
+    <rPh sb="6" eb="8">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルのmasterブランチからリモートのmasterブランチにプッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リモートのdevelopブランチを削除</t>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※開発が完了したため、リモートリポジトリに保持させていた作業内容保管用のブランチを削除</t>
+    <rPh sb="1" eb="3">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="28" eb="35">
+      <t>サギョウナイヨウホカンヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■作業手順</t>
+    <rPh sb="1" eb="5">
+      <t>サギョウテジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックアップ用</t>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発用バージョン</t>
+    <rPh sb="0" eb="3">
+      <t>カイハツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業用バーション</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#ブランチ運用-基本#</t>
+    <rPh sb="5" eb="7">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キホン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -133,7 +538,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,18 +563,107 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3333FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -184,11 +678,77 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -198,6 +758,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FF3333FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -742,6 +1308,1772 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D066092F-B2B1-49F8-9049-7C137F04576E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1920875" y="3883025"/>
+          <a:ext cx="0" cy="1920875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29801AC9-69DD-47FA-B8AA-CAA656091F85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5845175" y="3863975"/>
+          <a:ext cx="0" cy="1914525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A9018E-3DF8-4364-84D3-80F501452AA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="6035675"/>
+          <a:ext cx="3175" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>225425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CAB7CBB-DB11-4AED-8F2E-4C4A27DDE40F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2355850" y="4594225"/>
+          <a:ext cx="3175" cy="2146300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>231775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4F0DE2-7FB8-4BD9-8C4F-954098B80825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4587875" y="4606925"/>
+          <a:ext cx="0" cy="2139950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94518672-EAAE-4A2C-9782-E993714B1C93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7096125" y="3873500"/>
+          <a:ext cx="0" cy="1898650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>225425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D701D63B-ED6B-4D0F-80DA-4C95AF5ECB87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4295775" y="7016750"/>
+          <a:ext cx="0" cy="688975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>92076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="四角形: 角を丸くする 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF6274B-F850-481B-9589-3FA37E35EFCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1930401" y="6076951"/>
+          <a:ext cx="279400" cy="288925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>273051</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>117476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>260351</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>149226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="四角形: 角を丸くする 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D7EF52-628A-41EB-98E0-79A788005475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4159251" y="7356476"/>
+          <a:ext cx="266700" cy="273050"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3176</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>73026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>269876</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="四角形: 角を丸くする 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79150367-7178-4FD9-B33D-A303FEFDC871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448176" y="6346826"/>
+          <a:ext cx="266700" cy="273050"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>130176</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>111126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>117476</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>149226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="四角形: 角を丸くする 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C34E9B2-2A4E-4FD4-8FC5-58F356D9C048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5692776" y="3971926"/>
+          <a:ext cx="266700" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>269251</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169701</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="四角形: 角を丸くする 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0CF7A5-CD05-49DA-B73F-D00B121505F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905501" y="6118226"/>
+          <a:ext cx="485150" cy="337975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="四角形: 角を丸くする 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2057AB8-D975-4558-A385-2AEC570BCA18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6302375" y="7058026"/>
+          <a:ext cx="462925" cy="337975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>174627</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="四角形: 角を丸くする 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D399837-3EC0-4929-8EDA-DA6E5F1D4676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6575427" y="6092826"/>
+          <a:ext cx="482598" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>168277</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="四角形: 角を丸くする 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9BAA285-8BF6-451C-9BFE-8090DD600ECA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6848477" y="5387976"/>
+          <a:ext cx="482598" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28577</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="四角形: 角を丸くする 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325C5D2A-19A6-4745-B95D-76B7030295CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429377" y="4298951"/>
+          <a:ext cx="482598" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>73026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>237500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>169701</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="四角形: 角を丸くする 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484B9E20-571F-5841-8461-85FAF770A1D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="3940176"/>
+          <a:ext cx="481975" cy="337975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>168276</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>91451</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>131600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="四角形: 角を丸くする 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E64CE0BF-68A7-391D-0307-A034E0F40C69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819276" y="6080125"/>
+          <a:ext cx="481975" cy="337975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>193676</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>92076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>116851</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>188751</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="四角形: 角を丸くする 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF77570E-80CF-9D42-DB3A-39B7CB6B008C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124076" y="5413376"/>
+          <a:ext cx="481975" cy="337975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>174626</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>97801</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="四角形: 角を丸くする 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CE1F7B-338D-EDB7-8736-D6DF13765736}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105026" y="7058025"/>
+          <a:ext cx="481975" cy="337975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>97800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160176</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="四角形: 角を丸くする 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002A72E7-DA23-5527-A1E9-7FA5A5D956C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4060825" y="7315201"/>
+          <a:ext cx="481975" cy="337975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>113676</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150651</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="四角形: 角を丸くする 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F53F34E-458A-6BF6-8323-3185C1B0D791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4356101" y="6340476"/>
+          <a:ext cx="481975" cy="337975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53976</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>250201</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>157001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="四角形: 角を丸くする 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E7CED2A-0292-2947-2BBE-B65B0F356EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5616576" y="3927476"/>
+          <a:ext cx="475625" cy="337975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A41A3C6-ACF7-CC9D-DBEC-8A17D99B3C47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="714375"/>
+          <a:ext cx="6905625" cy="5768967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>677765</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>105884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5C86BB-3AE3-3CD6-E35B-5716563C69CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="731743"/>
+          <a:ext cx="6840440" cy="5089141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>684463</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>94258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAAD2CA-6732-5BF8-826B-6F2EF0ADD1D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8220075" y="716173"/>
+          <a:ext cx="6866188" cy="5093085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1041,7 +3373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2816FB-7B41-4BB0-878F-FEBCE2A93554}">
   <dimension ref="B2:C233"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A235" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A112" workbookViewId="0">
       <selection activeCell="B260" sqref="B260"/>
     </sheetView>
   </sheetViews>
@@ -1095,11 +3427,1133 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA72582-10E1-4F00-80B3-8F4106F82634}">
+  <dimension ref="A1:AW32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="45" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="3"/>
+      <c r="Z3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A4" s="19"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A5" s="19"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="15">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15"/>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A7" s="19"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="15">
+        <v>4</v>
+      </c>
+      <c r="AB7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A8" s="19"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="15">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="15"/>
+    </row>
+    <row r="9" spans="1:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="20"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="15">
+        <v>6</v>
+      </c>
+      <c r="AB9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15"/>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="15">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="15">
+        <v>8</v>
+      </c>
+      <c r="AB11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="15"/>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="3"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="15">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="15"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="15"/>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A13" s="19"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="15">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="15"/>
+      <c r="AU13" s="15"/>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="15"/>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A14" s="19"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="15">
+        <v>11</v>
+      </c>
+      <c r="AB14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="15"/>
+      <c r="AU14" s="15"/>
+      <c r="AV14" s="15"/>
+      <c r="AW14" s="15"/>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A15" s="19"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="15">
+        <v>12</v>
+      </c>
+      <c r="AB15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="15"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="15"/>
+      <c r="AU15" s="15"/>
+      <c r="AV15" s="15"/>
+      <c r="AW15" s="15"/>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A16" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="15"/>
+      <c r="AV16" s="15"/>
+      <c r="AW16" s="15"/>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A17" s="19"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="15"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="15"/>
+      <c r="AT17" s="15"/>
+      <c r="AU17" s="15"/>
+      <c r="AV17" s="15"/>
+      <c r="AW17" s="15"/>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A18" s="19"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="15"/>
+      <c r="AR18" s="15"/>
+      <c r="AS18" s="15"/>
+      <c r="AT18" s="15"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="15"/>
+      <c r="AW18" s="15"/>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A19" s="19"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="A20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="15"/>
+    </row>
+    <row r="21" spans="1:49" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="20"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="Z23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="AA24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="Z26" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="AA27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="AA28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="AA29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="AA30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="AA31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="AA32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="AA24" r:id="rId1" xr:uid="{037104CC-8FFA-4B9B-8976-794A45A8E634}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDE8343-4463-4F0B-B3F5-9A42E0E2E78E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973446C2-67E7-4092-883C-D900E966CA43}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF98944-F503-45C7-9DDB-13E4BBCBCEEB}">
   <dimension ref="A3:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1121,4 +4575,80 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5603625-A83D-4FF5-954D-3885C09C56EE}">
+  <dimension ref="B2:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C17" r:id="rId1" xr:uid="{A06B041C-8039-4E1D-83B7-39C53727AD15}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{0822147D-414F-4031-9061-2E393D563F46}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+</worksheet>
 </file>